--- a/biology/Botanique/Allium_cristophii/Allium_cristophii.xlsx
+++ b/biology/Botanique/Allium_cristophii/Allium_cristophii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium cristophii, l'Ail à boule étoilée, ou Étoile de Perse[1] est une espèce de plante bulbeuse du genre Allium, appartenant à la famille des Amaryllidaceae. Elle est originaire d'Asie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium cristophii, l'Ail à boule étoilée, ou Étoile de Perse est une espèce de plante bulbeuse du genre Allium, appartenant à la famille des Amaryllidaceae. Elle est originaire d'Asie.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Allium « étoile de Perse » est une espèce à fleurs bleu-violettes. Elle est originaire du centre de la Turquie (province de Kayseri), du nord de l'Iran et du Turkménistan et cultivée comme plante ornementale[2].
-Voyant et inhabituel, le capitule de l'étoile de Perse peut mesurer jusqu'à 30 cm de diamètre. Près de 100 fleurs violettes è reflets métalliques créent une floraison en forme d'étoile qui ressemble à un « feu d'artifice explosif »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Allium « étoile de Perse » est une espèce à fleurs bleu-violettes. Elle est originaire du centre de la Turquie (province de Kayseri), du nord de l'Iran et du Turkménistan et cultivée comme plante ornementale.
+Voyant et inhabituel, le capitule de l'étoile de Perse peut mesurer jusqu'à 30 cm de diamètre. Près de 100 fleurs violettes è reflets métalliques créent une floraison en forme d'étoile qui ressemble à un « feu d'artifice explosif ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium cristophii a été décrit par le botaniste et ptéridologue russe, Ernst Rudolf von Trautvetter et publié dans Trudy Imperatorskago S. -Peterburgskago Botaničeskago Sada en 1884[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium cristophii a été décrit par le botaniste et ptéridologue russe, Ernst Rudolf von Trautvetter et publié dans Trudy Imperatorskago S. -Peterburgskago Botaničeskago Sada en 1884,.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Allium albopilosum C.H.Wright
 Allium bodeanum Regel
-Allium walteri Regel[6]</t>
+Allium walteri Regel</t>
         </is>
       </c>
     </row>
